--- a/input_locations.xlsx
+++ b/input_locations.xlsx
@@ -1,108 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Starting_City</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>New York, NY, USA</t>
-  </si>
-  <si>
-    <t>London, UK</t>
-  </si>
-  <si>
-    <t>Tokyo, Japan</t>
-  </si>
-  <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA, USA</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>Toronto, Canada</t>
-  </si>
-  <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>San Francisco, CA, USA</t>
-  </si>
-  <si>
-    <t>Chicago, IL, USA</t>
-  </si>
-  <si>
-    <t>Boston, MA, USA</t>
-  </si>
-  <si>
-    <t>Kyoto, Japan</t>
-  </si>
-  <si>
-    <t>Amsterdam, Netherlands</t>
-  </si>
-  <si>
-    <t>Las Vegas, NV, USA</t>
-  </si>
-  <si>
-    <t>Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Montreal, Canada</t>
-  </si>
-  <si>
-    <t>Munich, Germany</t>
-  </si>
-  <si>
-    <t>Seattle, WA, USA</t>
-  </si>
-  <si>
-    <t>Milwaukee, WI, USA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,102 +420,1159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>traveler_funding_sources</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_purpose_details</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_departure_city</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_departure_state</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_departure_country</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_departure_zip_code</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_departure_street_address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_destination_city</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_destination_state</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_destination_country</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_destination_zip_code</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>trip_info_destination_street_address</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>travel_info_methods_methods</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Calculated_Distance_km</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus charter to pick up incoming EOP new students for Summer Program. </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NY2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>United States3</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>10036</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>33 West 42nd Street</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>"bus"</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>297.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volleyball Recruiting Travel 7/2 - 7/5
+July 2-July 5th 
+Junior Olympic Volleyball Nationals
+McCormick Place Convention Center
+2301 S. King Dr.
+Chicago, IL 60616
+Personal Dates 7/1, 7/6 - 7/9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>60616</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2301 S King Dr</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>"plane", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>970.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>"rf"</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To attend and present a paper at IEEE Statistical Signal Processing Workshop in Vietnam. Details: https://ssp2023.org </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>13905</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4 Bennett Ave</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>4 Bennett Ave</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>"plane", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travel to various cities in NY, NJ, PA to meet with preceptors and students to do site visits, preceptor development and student recruitment.  </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vestal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>13850</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>134 S Jensen Rd Apt G12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Various Cities</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>13202</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Multiple Locations</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>"personal_car", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>295.47</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Travel to various cities in NY, NJ, PA to meet with preceptors and students to visit sites and do recruitment.  Teach preceptor development.  Meet with the School of Pharmacy faculty that works downstate. Research.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>13905</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>51 Bennett Ave</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Various Cities</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>14424</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Multiple Locations</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>"personal_car", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>284.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travel to various cities in NY, NJ, PA to meet with preceptors and students to visit and do recruitment. Teach preceptor development. Meet with the School of Pharmacy faculty that works downstate. Research. </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>13905</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8 Vincent St</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Various Cities</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>14424</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Multiple Locations</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>"personal_car", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>284.08</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>"binghamton"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Home visits for Ford Family Wellness Center for Seniors</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Johnson City</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>13905</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>48 Corliss Ave</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>13760</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>"personal_car"</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>287.94</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>"ny_state", "rf"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://hypatiainthewoods.org/
+Dear Jennifer Stoever,
+We are happy to tell you that you are among the applicants chosen for a Hypatia-in-the-Woods residency.  Attempting to get seven appointees scheduled as close to their preferred times as we can in a quarter is always an imperfect art, but I have you tentatively scheduled for something close to your preferred time, from Sunday, July 2, to Saturday, July 15.
+Please let us know as soon as possible if you are able to accept this appointment. We would love to have your offered donation by two weeks before your arrival, if that is possible. We are an all-volunteer organization with no staff, so your entire donation goes toward maintaining Holly House and making residencies possible for women whose projects are so often submerged by the quotidian demands of home and work.
+I am attaching an information document that should help you in your planning and thinking about your time at Holly House. 
+If you need a formal letter of appointment for academic or employment purposes, just let us know. We do know how to use snail mail.
+Congratulations, and welcome. You join an amazing procession of scholars, artists, writers and other creative women whose energy is palpable at Holly House. We look forward to meeting you.
+Best regards, 
+Carolyn Maddux, for the board and selection team</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ithaca</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>14850</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62 WOODCREST AVE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Shelton</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>98584</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>162 Lagoon Lane</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>"plane", "personal_car", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>3664.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>"binghamton"</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Travel to the Field Museum of Natural History, to measure their specimens of Large-billed Crow for a study of biogeographic variation and speciation. PhD student Aubrey Alamshah will travel by air to Chicago for a week to carry out the measurements (with an assistant).</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Freeville</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>13068</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>47 Hile School Road</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Grayslake</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>60030</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>34137 N Wooded Glen Dr</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>"plane", "train"</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>961.8200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>This is to attend a technical conference, IEEE Biosensors 2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>13850</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4400  Vestal Parkway,</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">380 Kensington High Street </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>"plane", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>5613.59</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conducting archival research at the Ottoman Archives in Istanbul. Acquiring and reading Ottoman documents and manuscripts related to Ottoman History that are not available digitally.
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 Pera Apartments, Beyoglu,  Istanbul , Turkey </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>"plane", "train", "bus", "personal_car"</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>8113.25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attending and Presenting at the Annual Institute for World Literature at Harvard University </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cambridge</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2138</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16 Quincy Street</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>"rental_car"</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>486.88</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Attending and Presenting at the Annual Institute for World Literature at Harvard University. (Note - The 13th IWL session will meet from July 5 through July 27, 2023 at Harvard. Our four-week program includes a total of twelve two-week seminars</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cambridge</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2138</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16 Quincy Street</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>"bus", "rental_car"</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>486.88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus charter to pick up incoming EOP new students for Summer Program. </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>10036</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>33 West 42nd Street</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>"bus"</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>297.34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>"ny_state"</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bus charter to pick up incoming EOP new students for Summer Program.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>13902</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4400 Vestal Parkway East</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>10036</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>33 West 42nd Street</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>"bus"</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>297.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>